--- a/medicine/Mort/Cimetière_de_l'Est_(Metz)/Cimetière_de_l'Est_(Metz).xlsx
+++ b/medicine/Mort/Cimetière_de_l'Est_(Metz)/Cimetière_de_l'Est_(Metz).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Metz)</t>
+          <t>Cimetière_de_l'Est_(Metz)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de l’Est est le plus grand cimetière de la ville de Metz[1]. Aménagé en 1829, il est situé en lisière du quartier de Plantières Queuleu, à la limite avec celui de Borny.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l’Est est le plus grand cimetière de la ville de Metz. Aménagé en 1829, il est situé en lisière du quartier de Plantières Queuleu, à la limite avec celui de Borny.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Metz)</t>
+          <t>Cimetière_de_l'Est_(Metz)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Historique[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1829, les cimetières messins se voient trop exigus pour accueillir de nouveaux défunts sans infliger au voisinage des nuisances olfactives ou autres. En effet, les cimetières de la ville étaient répartis autour des différentes églises et donc sur un espace très limité qui obligeait à exhumer les cadavres afin d’en enterrer de nouveaux ou alors à les entasser de manière anarchique, au Pontiffroy, avec la proximité de la Moselle, les vapeurs infligeaient au voisinage de nombreuses maladies souvent mortelles.
 La même année, l’inspecteur de la voirie Marie-Lucien Silly décide d’acquérir un terrain de deux hectares et demi afin de répondre aux besoins d’inhumation décente grandissants. Décidant de faire don du terrain à la ville, mais sous réserve d’avantages fiscaux sur les concessions, le maire Joseph de Turmel et la préfecture refusent.
 Deux ans plus tard, une épidémie de choléra se déclare dans la ville, l’acquisition d’un nouveau terrain se voit urgente ; or la discorde passée avec M. Silly amène ce dernier à faire vente et non-donation du terrain à la municipalité. Cependant au vu de l’état urgent des choses dû à l’épidémie, la mairie accepte sans trop de difficultés malgré le désaccord du ministre du Commerce et des Travaux publics, le comte d’Argout[précision nécessaire], quant à la formule de cimetière privatif qui fit aussi de nombreux mécontents parmi l’opinion publique.
-Le cimetière de l’Est ouvre ses portes en 1834[3].
-La partie ancienne du cimetière, composée des sols des quatre sections organisées autour du rond-point et l'ensemble des monuments funéraires qui s'y trouvent, ainsi que les entrées datées de 1834 et 1864 (avenue de Strasbourg) avec les murs qui les intègrent sont inscrits au titre des monuments historiques par arrêté du 29 juillet 2003[4]. 
+Le cimetière de l’Est ouvre ses portes en 1834.
+La partie ancienne du cimetière, composée des sols des quatre sections organisées autour du rond-point et l'ensemble des monuments funéraires qui s'y trouvent, ainsi que les entrées datées de 1834 et 1864 (avenue de Strasbourg) avec les murs qui les intègrent sont inscrits au titre des monuments historiques par arrêté du 29 juillet 2003. 
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Metz)</t>
+          <t>Cimetière_de_l'Est_(Metz)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Construction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aménagement du terrain afin d’y inhumer les défunts s’est opéré dès 1829, année où il est mis entre murs et où il est doté d’une loge de gardien[2]. La chapelle a également été construite au cours du XIXe siècle. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aménagement du terrain afin d’y inhumer les défunts s’est opéré dès 1829, année où il est mis entre murs et où il est doté d’une loge de gardien. La chapelle a également été construite au cours du XIXe siècle. 
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Metz)</t>
+          <t>Cimetière_de_l'Est_(Metz)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Aménagements successifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De nouvelles entrées sont percées en 1864, notamment celle de l’avenue de Strasbourg à l’attention des protestants dont la section se situe dans cette zone du cimetière, auparavant l’entrée principale de la rue du Roi-Albert était l’unique accès à la nécropole.
 De nombreuses extensions permirent au cimetière de septupler sa superficie d’origine d’environ 2,5 ha afin d’atteindre aujourd’hui celle de 17,5 ha.
-Il a également été doté d’un crématorium au cours du XXe siècle[2].
+Il a également été doté d’un crématorium au cours du XXe siècle.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Metz)</t>
+          <t>Cimetière_de_l'Est_(Metz)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Général Paul-Joseph Ardant (1800-1858), homme politique
 Paul Théodore Auguste Bezanson (1804-1882), maire de Metz et député du Reichstag
@@ -621,7 +641,7 @@
 Baron Gilbert Dufour (1769-1842), administrateur militaire, maire de Metz, pair de France
 Auguste Hussenot (1799-1885), peintre
 Félix Maréchal (1798-1871), maire de Metz (buste de son épouse)
-Juge Pierre Michel (1943-1981), assassiné par la pègre à Marseille[5]
+Juge Pierre Michel (1943-1981), assassiné par la pègre à Marseille
 Général Antoine Alexandre Rousseaux (1756-1827), général de la Révolution et de l'Empire (colonne)
 Antoine Sauvage (1809-1860), facteur d'orgue (bas-relief d'orgue)
 Paul Vautrin (1876-1938), maire de Metz (buste)</t>
